--- a/QLearning_MountainCar_OpenAI/Results.xlsx
+++ b/QLearning_MountainCar_OpenAI/Results.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/PhD/PhD_working/2018-phd-pedro-fernandez/Mountain_OpenAI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/PhD/PhD_working/2018-phd-pedro-fernandez/QLearning_MountainCar_OpenAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3FDDD-456C-F340-AD15-361B262E12FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D458A3F-75BF-8746-A617-EBFBBBE134C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="24700" windowHeight="14900" xr2:uid="{79392283-3EFA-1443-ACBC-EA357165D65D}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="24700" windowHeight="14900" activeTab="1" xr2:uid="{79392283-3EFA-1443-ACBC-EA357165D65D}"/>
   </bookViews>
   <sheets>
     <sheet name="MountainCar-v0" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla discretizada" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -868,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64012AC9-716E-3D48-B011-D80DF4F3731D}">
   <dimension ref="C4:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,15 +1113,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A8AF5C-29D4-0243-AAB3-E5ED67E915C6}">
-  <dimension ref="E3:M16"/>
+  <dimension ref="E3:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:13" x14ac:dyDescent="0.2">
@@ -1296,6 +1298,49 @@
         <v>40</v>
       </c>
     </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f>1.2+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f>L23/20</f>
+        <v>0.09</v>
+      </c>
+      <c r="M24">
+        <f>L23/40</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f>1.2-L24</f>
+        <v>1.1099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f>L29/(L30-L31)</f>
+        <v>4.0001600064002562E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
